--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T16:45:27+00:00</t>
+    <t>2024-06-28T16:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T16:52:59+00:00</t>
+    <t>2024-06-28T22:14:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T22:14:31+00:00</t>
+    <t>2024-06-29T06:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (https://www.who.int)</t>
+    <t>WHO (http://who.int)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t/>
   </si>
   <si>
     <t>Description</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T06:31:00+00:00</t>
+    <t>2024-06-29T07:09:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T07:09:27+00:00</t>
+    <t>2024-06-29T07:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T07:14:41+00:00</t>
+    <t>2024-07-01T05:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T05:40:26+00:00</t>
+    <t>2024-07-01T07:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:25:05+00:00</t>
+    <t>2024-07-01T12:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:29:47+00:00</t>
+    <t>2024-07-01T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T14:15:20+00:00</t>
+    <t>2024-07-01T15:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:25+00:00</t>
+    <t>2024-07-01T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:16:13+00:00</t>
+    <t>2024-07-01T19:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:46:06+00:00</t>
+    <t>2024-07-01T19:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:47:23+00:00</t>
+    <t>2024-07-08T21:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T21:32:57+00:00</t>
+    <t>2024-07-12T23:16:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:16:48+00:00</t>
+    <t>2024-07-12T23:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:32:04+00:00</t>
+    <t>2024-07-12T23:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:35:30+00:00</t>
+    <t>2024-07-13T00:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-13T00:08:00+00:00</t>
+    <t>2024-07-13T00:11:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-13T00:11:33+00:00</t>
+    <t>2024-07-18T00:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T00:40:55+00:00</t>
+    <t>2024-07-22T01:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:36:05+00:00</t>
+    <t>2024-07-22T01:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:55:08+00:00</t>
+    <t>2024-07-22T01:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:56:54+00:00</t>
+    <t>2024-07-23T00:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T00:54:21+00:00</t>
+    <t>2024-07-24T18:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T18:44:05+00:00</t>
+    <t>2024-07-24T22:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T22:47:13+00:00</t>
+    <t>2024-07-31T16:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T16:10:46+00:00</t>
+    <t>2024-08-02T14:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-02T14:11:44+00:00</t>
+    <t>2024-08-09T22:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-09T22:35:04+00:00</t>
+    <t>2024-08-12T23:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T23:19:51+00:00</t>
+    <t>2024-08-13T19:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T19:21:15+00:00</t>
+    <t>2024-08-14T10:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T10:49:52+00:00</t>
+    <t>2024-08-18T03:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T03:48:48+00:00</t>
+    <t>2024-08-18T17:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T17:57:09+00:00</t>
+    <t>2024-08-18T18:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:01:46+00:00</t>
+    <t>2024-08-18T18:15:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:15:40+00:00</t>
+    <t>2024-08-18T19:04:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:04:15+00:00</t>
+    <t>2024-08-18T19:05:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:05:30+00:00</t>
+    <t>2024-08-18T19:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:09:24+00:00</t>
+    <t>2024-08-21T16:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:05:17+00:00</t>
+    <t>2024-09-25T13:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:28:49+00:00</t>
+    <t>2024-10-17T13:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:22:30+00:00</t>
+    <t>2024-10-17T13:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:23:47+00:00</t>
+    <t>2024-10-17T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:40:48+00:00</t>
+    <t>2024-10-17T13:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:43:39+00:00</t>
+    <t>2024-10-17T13:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:46:08+00:00</t>
+    <t>2024-10-30T19:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:02:22+00:00</t>
+    <t>2024-10-30T19:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:04:31+00:00</t>
+    <t>2024-11-07T20:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T20:58:48+00:00</t>
+    <t>2024-11-07T21:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:00:54+00:00</t>
+    <t>2024-11-07T21:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:07:17+00:00</t>
+    <t>2024-12-06T22:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:10:30+00:00</t>
+    <t>2024-12-06T22:29:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:29:10+00:00</t>
+    <t>2024-12-06T22:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:30:44+00:00</t>
+    <t>2024-12-19T17:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T17:58:53+00:00</t>
+    <t>2024-12-30T06:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T06:22:02+00:00</t>
+    <t>2025-01-02T00:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T00:27:00+00:00</t>
+    <t>2025-01-13T13:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:44:09+00:00</t>
+    <t>2025-01-13T18:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:26:13+00:00</t>
+    <t>2025-01-13T18:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8411" uniqueCount="5393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8411" uniqueCount="5390">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T16:09:20+00:00</t>
+    <t>2025-01-30T04:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,7 +393,7 @@
     <t>Marital Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Client's current marital status </t>
+    <t>Client's current marital status</t>
   </si>
   <si>
     <t>HIV.A.DE31</t>
@@ -2832,7 +2832,7 @@
     <t>Treponemal</t>
   </si>
   <si>
-    <t xml:space="preserve">Treponemal test used </t>
+    <t>Treponemal test used</t>
   </si>
   <si>
     <t>HIV.B.DE271</t>
@@ -11844,7 +11844,7 @@
     <t>Re-registered</t>
   </si>
   <si>
-    <t xml:space="preserve">A person with TB disease who had been notified previously as a TB case, but was not declared cured or treatment completed, and is now being registered for a new course of TB treatment. </t>
+    <t>A person with TB disease who had been notified previously as a TB case, but was not declared cured or treatment completed, and is now being registered for a new course of TB treatment.</t>
   </si>
   <si>
     <t>HIV.D.DE951</t>
@@ -12780,7 +12780,7 @@
     <t>Eclampsia</t>
   </si>
   <si>
-    <t xml:space="preserve">A condition peculiar to pregnancy or a newly delivered woman, characterized by fits followed coma. The woman usually has hypertension and proteinuria. The fits may occur in the antepartum, intrapartum or early postpartum periods. </t>
+    <t>A condition peculiar to pregnancy or a newly delivered woman, characterized by fits followed coma. The woman usually has hypertension and proteinuria. The fits may occur in the antepartum, intrapartum or early postpartum periods.</t>
   </si>
   <si>
     <t>HIV.E.DE22</t>
@@ -12795,7 +12795,7 @@
     <t>Baby died within 24 hours of birth</t>
   </si>
   <si>
-    <t xml:space="preserve">The woman's baby died within 24 hours of childbirth </t>
+    <t>The woman's baby died within 24 hours of childbirth</t>
   </si>
   <si>
     <t>HIV.E.DE24</t>
@@ -14388,7 +14388,7 @@
     <t>Haemoglobin (Hb) result</t>
   </si>
   <si>
-    <t xml:space="preserve">Result of woman's haemoglobin test during ANC, labour or delivery. Full blood count testing is recommended, and if not available, use of  haemoglobinometer over haemoglobin colour scale. </t>
+    <t>Result of woman's haemoglobin test during ANC, labour or delivery. Full blood count testing is recommended, and if not available, use of  haemoglobinometer over haemoglobin colour scale.</t>
   </si>
   <si>
     <t>HIV.E.DE246</t>
@@ -15432,9 +15432,6 @@
     <t>HIV.H.DE42</t>
   </si>
   <si>
-    <t xml:space="preserve">Twenty-eight days or more since last missed appointment </t>
-  </si>
-  <si>
     <t>HIV.H.DE43</t>
   </si>
   <si>
@@ -15459,9 +15456,6 @@
     <t>HIV.H.DE47</t>
   </si>
   <si>
-    <t xml:space="preserve">Client is currently taking ART </t>
-  </si>
-  <si>
     <t>HIV.H.DE48</t>
   </si>
   <si>
@@ -15531,9 +15525,6 @@
     <t>HIV.H.DE59</t>
   </si>
   <si>
-    <t xml:space="preserve">Client reported not being adherent because of distance to clinic </t>
-  </si>
-  <si>
     <t>HIV.H.DE60</t>
   </si>
   <si>
@@ -15603,13 +15594,13 @@
     <t>HIV.H.DE77</t>
   </si>
   <si>
-    <t xml:space="preserve">Client stopped ART because of drugs being out of stock </t>
+    <t>Client stopped ART because of drugs being out of stock</t>
   </si>
   <si>
     <t>HIV.H.DE78</t>
   </si>
   <si>
-    <t xml:space="preserve">Client stopped ART because client lacked finances </t>
+    <t>Client stopped ART because client lacked finances</t>
   </si>
   <si>
     <t>HIV.H.DE79</t>
@@ -15663,7 +15654,7 @@
     <t>Referral for screening including diagnostics and lab testing</t>
   </si>
   <si>
-    <t xml:space="preserve">The client is referred because they need a lab test done and/or diagnostics done, but those services are unavailable at the current health facility or providers. This includes referral for TB screening (is symptomatic of TB, has had close contact with confirmed TB case, etc.) and other comorbidities or coinfections. </t>
+    <t>The client is referred because they need a lab test done and/or diagnostics done, but those services are unavailable at the current health facility or providers. This includes referral for TB screening (is symptomatic of TB, has had close contact with confirmed TB case, etc.) and other comorbidities or coinfections.</t>
   </si>
   <si>
     <t>HIV.I.DE5</t>
@@ -44338,7 +44329,7 @@
         <v>4108</v>
       </c>
       <c r="D1988" t="s" s="2">
-        <v>5138</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="1989">
@@ -44346,7 +44337,7 @@
         <v>41</v>
       </c>
       <c r="B1989" t="s" s="2">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="C1989" t="s" s="2">
         <v>4763</v>
@@ -44360,7 +44351,7 @@
         <v>41</v>
       </c>
       <c r="B1990" t="s" s="2">
-        <v>5140</v>
+        <v>5139</v>
       </c>
       <c r="C1990" t="s" s="2">
         <v>4766</v>
@@ -44374,13 +44365,13 @@
         <v>41</v>
       </c>
       <c r="B1991" t="s" s="2">
-        <v>5141</v>
+        <v>5140</v>
       </c>
       <c r="C1991" t="s" s="2">
         <v>4769</v>
       </c>
       <c r="D1991" t="s" s="2">
-        <v>5142</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="1992">
@@ -44388,13 +44379,13 @@
         <v>41</v>
       </c>
       <c r="B1992" t="s" s="2">
+        <v>5142</v>
+      </c>
+      <c r="C1992" t="s" s="2">
         <v>5143</v>
       </c>
-      <c r="C1992" t="s" s="2">
+      <c r="D1992" t="s" s="2">
         <v>5144</v>
-      </c>
-      <c r="D1992" t="s" s="2">
-        <v>5145</v>
       </c>
     </row>
     <row r="1993">
@@ -44402,13 +44393,13 @@
         <v>41</v>
       </c>
       <c r="B1993" t="s" s="2">
-        <v>5146</v>
+        <v>5145</v>
       </c>
       <c r="C1993" t="s" s="2">
         <v>1603</v>
       </c>
       <c r="D1993" t="s" s="2">
-        <v>5147</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1994">
@@ -44416,13 +44407,13 @@
         <v>41</v>
       </c>
       <c r="B1994" t="s" s="2">
+        <v>5146</v>
+      </c>
+      <c r="C1994" t="s" s="2">
+        <v>5147</v>
+      </c>
+      <c r="D1994" t="s" s="2">
         <v>5148</v>
-      </c>
-      <c r="C1994" t="s" s="2">
-        <v>5149</v>
-      </c>
-      <c r="D1994" t="s" s="2">
-        <v>5150</v>
       </c>
     </row>
     <row r="1995">
@@ -44430,13 +44421,13 @@
         <v>41</v>
       </c>
       <c r="B1995" t="s" s="2">
+        <v>5149</v>
+      </c>
+      <c r="C1995" t="s" s="2">
+        <v>5150</v>
+      </c>
+      <c r="D1995" t="s" s="2">
         <v>5151</v>
-      </c>
-      <c r="C1995" t="s" s="2">
-        <v>5152</v>
-      </c>
-      <c r="D1995" t="s" s="2">
-        <v>5153</v>
       </c>
     </row>
     <row r="1996">
@@ -44444,13 +44435,13 @@
         <v>41</v>
       </c>
       <c r="B1996" t="s" s="2">
+        <v>5152</v>
+      </c>
+      <c r="C1996" t="s" s="2">
+        <v>5153</v>
+      </c>
+      <c r="D1996" t="s" s="2">
         <v>5154</v>
-      </c>
-      <c r="C1996" t="s" s="2">
-        <v>5155</v>
-      </c>
-      <c r="D1996" t="s" s="2">
-        <v>5156</v>
       </c>
     </row>
     <row r="1997">
@@ -44458,13 +44449,13 @@
         <v>41</v>
       </c>
       <c r="B1997" t="s" s="2">
+        <v>5155</v>
+      </c>
+      <c r="C1997" t="s" s="2">
+        <v>5156</v>
+      </c>
+      <c r="D1997" t="s" s="2">
         <v>5157</v>
-      </c>
-      <c r="C1997" t="s" s="2">
-        <v>5158</v>
-      </c>
-      <c r="D1997" t="s" s="2">
-        <v>5159</v>
       </c>
     </row>
     <row r="1998">
@@ -44472,13 +44463,13 @@
         <v>41</v>
       </c>
       <c r="B1998" t="s" s="2">
+        <v>5158</v>
+      </c>
+      <c r="C1998" t="s" s="2">
+        <v>5159</v>
+      </c>
+      <c r="D1998" t="s" s="2">
         <v>5160</v>
-      </c>
-      <c r="C1998" t="s" s="2">
-        <v>5161</v>
-      </c>
-      <c r="D1998" t="s" s="2">
-        <v>5162</v>
       </c>
     </row>
     <row r="1999">
@@ -44486,13 +44477,13 @@
         <v>41</v>
       </c>
       <c r="B1999" t="s" s="2">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="C1999" t="s" s="2">
         <v>2050</v>
       </c>
       <c r="D1999" t="s" s="2">
-        <v>5164</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="2000">
@@ -44500,7 +44491,7 @@
         <v>41</v>
       </c>
       <c r="B2000" t="s" s="2">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="C2000" t="s" s="2">
         <v>2053</v>
@@ -44514,7 +44505,7 @@
         <v>41</v>
       </c>
       <c r="B2001" t="s" s="2">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="C2001" t="s" s="2">
         <v>2056</v>
@@ -44528,7 +44519,7 @@
         <v>41</v>
       </c>
       <c r="B2002" t="s" s="2">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="C2002" t="s" s="2">
         <v>2059</v>
@@ -44542,7 +44533,7 @@
         <v>41</v>
       </c>
       <c r="B2003" t="s" s="2">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="C2003" t="s" s="2">
         <v>2062</v>
@@ -44556,7 +44547,7 @@
         <v>41</v>
       </c>
       <c r="B2004" t="s" s="2">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="C2004" t="s" s="2">
         <v>2065</v>
@@ -44570,13 +44561,13 @@
         <v>41</v>
       </c>
       <c r="B2005" t="s" s="2">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="C2005" t="s" s="2">
         <v>2068</v>
       </c>
       <c r="D2005" t="s" s="2">
-        <v>5171</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="2006">
@@ -44584,13 +44575,13 @@
         <v>41</v>
       </c>
       <c r="B2006" t="s" s="2">
-        <v>5172</v>
+        <v>5169</v>
       </c>
       <c r="C2006" t="s" s="2">
         <v>2071</v>
       </c>
       <c r="D2006" t="s" s="2">
-        <v>5173</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="2007">
@@ -44598,7 +44589,7 @@
         <v>41</v>
       </c>
       <c r="B2007" t="s" s="2">
-        <v>5174</v>
+        <v>5171</v>
       </c>
       <c r="C2007" t="s" s="2">
         <v>2074</v>
@@ -44612,7 +44603,7 @@
         <v>41</v>
       </c>
       <c r="B2008" t="s" s="2">
-        <v>5175</v>
+        <v>5172</v>
       </c>
       <c r="C2008" t="s" s="2">
         <v>2077</v>
@@ -44626,7 +44617,7 @@
         <v>41</v>
       </c>
       <c r="B2009" t="s" s="2">
-        <v>5176</v>
+        <v>5173</v>
       </c>
       <c r="C2009" t="s" s="2">
         <v>2080</v>
@@ -44640,7 +44631,7 @@
         <v>41</v>
       </c>
       <c r="B2010" t="s" s="2">
-        <v>5177</v>
+        <v>5174</v>
       </c>
       <c r="C2010" t="s" s="2">
         <v>2083</v>
@@ -44654,7 +44645,7 @@
         <v>41</v>
       </c>
       <c r="B2011" t="s" s="2">
-        <v>5178</v>
+        <v>5175</v>
       </c>
       <c r="C2011" t="s" s="2">
         <v>2086</v>
@@ -44668,7 +44659,7 @@
         <v>41</v>
       </c>
       <c r="B2012" t="s" s="2">
-        <v>5179</v>
+        <v>5176</v>
       </c>
       <c r="C2012" t="s" s="2">
         <v>2089</v>
@@ -44682,13 +44673,13 @@
         <v>41</v>
       </c>
       <c r="B2013" t="s" s="2">
-        <v>5180</v>
+        <v>5177</v>
       </c>
       <c r="C2013" t="s" s="2">
         <v>2092</v>
       </c>
       <c r="D2013" t="s" s="2">
-        <v>5181</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="2014">
@@ -44696,7 +44687,7 @@
         <v>41</v>
       </c>
       <c r="B2014" t="s" s="2">
-        <v>5182</v>
+        <v>5179</v>
       </c>
       <c r="C2014" t="s" s="2">
         <v>2095</v>
@@ -44710,7 +44701,7 @@
         <v>41</v>
       </c>
       <c r="B2015" t="s" s="2">
-        <v>5183</v>
+        <v>5180</v>
       </c>
       <c r="C2015" t="s" s="2">
         <v>2098</v>
@@ -44724,7 +44715,7 @@
         <v>41</v>
       </c>
       <c r="B2016" t="s" s="2">
-        <v>5184</v>
+        <v>5181</v>
       </c>
       <c r="C2016" t="s" s="2">
         <v>2101</v>
@@ -44738,13 +44729,13 @@
         <v>41</v>
       </c>
       <c r="B2017" t="s" s="2">
-        <v>5185</v>
+        <v>5182</v>
       </c>
       <c r="C2017" t="s" s="2">
         <v>109</v>
       </c>
       <c r="D2017" t="s" s="2">
-        <v>5186</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2018">
@@ -44752,13 +44743,13 @@
         <v>41</v>
       </c>
       <c r="B2018" t="s" s="2">
-        <v>5187</v>
+        <v>5184</v>
       </c>
       <c r="C2018" t="s" s="2">
         <v>112</v>
       </c>
       <c r="D2018" t="s" s="2">
-        <v>5188</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2019">
@@ -44766,7 +44757,7 @@
         <v>41</v>
       </c>
       <c r="B2019" t="s" s="2">
-        <v>5189</v>
+        <v>5186</v>
       </c>
       <c r="C2019" t="s" s="2">
         <v>1611</v>
@@ -44780,13 +44771,13 @@
         <v>41</v>
       </c>
       <c r="B2020" t="s" s="2">
-        <v>5190</v>
+        <v>5187</v>
       </c>
       <c r="C2020" t="s" s="2">
         <v>2110</v>
       </c>
       <c r="D2020" t="s" s="2">
-        <v>5191</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="2021">
@@ -44794,7 +44785,7 @@
         <v>41</v>
       </c>
       <c r="B2021" t="s" s="2">
-        <v>5192</v>
+        <v>5189</v>
       </c>
       <c r="C2021" t="s" s="2">
         <v>2056</v>
@@ -44808,7 +44799,7 @@
         <v>41</v>
       </c>
       <c r="B2022" t="s" s="2">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="C2022" t="s" s="2">
         <v>2115</v>
@@ -44822,13 +44813,13 @@
         <v>41</v>
       </c>
       <c r="B2023" t="s" s="2">
-        <v>5194</v>
+        <v>5191</v>
       </c>
       <c r="C2023" t="s" s="2">
         <v>2118</v>
       </c>
       <c r="D2023" t="s" s="2">
-        <v>5195</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2024">
@@ -44836,13 +44827,13 @@
         <v>41</v>
       </c>
       <c r="B2024" t="s" s="2">
-        <v>5196</v>
+        <v>5193</v>
       </c>
       <c r="C2024" t="s" s="2">
         <v>2121</v>
       </c>
       <c r="D2024" t="s" s="2">
-        <v>5197</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="2025">
@@ -44850,13 +44841,13 @@
         <v>41</v>
       </c>
       <c r="B2025" t="s" s="2">
-        <v>5198</v>
+        <v>5195</v>
       </c>
       <c r="C2025" t="s" s="2">
         <v>2124</v>
       </c>
       <c r="D2025" t="s" s="2">
-        <v>5199</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="2026">
@@ -44864,13 +44855,13 @@
         <v>41</v>
       </c>
       <c r="B2026" t="s" s="2">
-        <v>5200</v>
+        <v>5197</v>
       </c>
       <c r="C2026" t="s" s="2">
         <v>2127</v>
       </c>
       <c r="D2026" t="s" s="2">
-        <v>5201</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="2027">
@@ -44878,13 +44869,13 @@
         <v>41</v>
       </c>
       <c r="B2027" t="s" s="2">
-        <v>5202</v>
+        <v>5199</v>
       </c>
       <c r="C2027" t="s" s="2">
         <v>2130</v>
       </c>
       <c r="D2027" t="s" s="2">
-        <v>5203</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="2028">
@@ -44892,13 +44883,13 @@
         <v>41</v>
       </c>
       <c r="B2028" t="s" s="2">
-        <v>5204</v>
+        <v>5201</v>
       </c>
       <c r="C2028" t="s" s="2">
-        <v>5205</v>
+        <v>5202</v>
       </c>
       <c r="D2028" t="s" s="2">
-        <v>5206</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="2029">
@@ -44906,13 +44897,13 @@
         <v>41</v>
       </c>
       <c r="B2029" t="s" s="2">
-        <v>5207</v>
+        <v>5204</v>
       </c>
       <c r="C2029" t="s" s="2">
-        <v>5208</v>
+        <v>5205</v>
       </c>
       <c r="D2029" t="s" s="2">
-        <v>5209</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2030">
@@ -44920,13 +44911,13 @@
         <v>41</v>
       </c>
       <c r="B2030" t="s" s="2">
-        <v>5210</v>
+        <v>5207</v>
       </c>
       <c r="C2030" t="s" s="2">
-        <v>5211</v>
+        <v>5208</v>
       </c>
       <c r="D2030" t="s" s="2">
-        <v>5212</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="2031">
@@ -44934,13 +44925,13 @@
         <v>41</v>
       </c>
       <c r="B2031" t="s" s="2">
-        <v>5213</v>
+        <v>5210</v>
       </c>
       <c r="C2031" t="s" s="2">
-        <v>5214</v>
+        <v>5211</v>
       </c>
       <c r="D2031" t="s" s="2">
-        <v>5215</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="2032">
@@ -44948,13 +44939,13 @@
         <v>41</v>
       </c>
       <c r="B2032" t="s" s="2">
-        <v>5216</v>
+        <v>5213</v>
       </c>
       <c r="C2032" t="s" s="2">
-        <v>5217</v>
+        <v>5214</v>
       </c>
       <c r="D2032" t="s" s="2">
-        <v>5218</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="2033">
@@ -44962,13 +44953,13 @@
         <v>41</v>
       </c>
       <c r="B2033" t="s" s="2">
-        <v>5219</v>
+        <v>5216</v>
       </c>
       <c r="C2033" t="s" s="2">
-        <v>5220</v>
+        <v>5217</v>
       </c>
       <c r="D2033" t="s" s="2">
-        <v>5221</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="2034">
@@ -44976,13 +44967,13 @@
         <v>41</v>
       </c>
       <c r="B2034" t="s" s="2">
-        <v>5222</v>
+        <v>5219</v>
       </c>
       <c r="C2034" t="s" s="2">
-        <v>5223</v>
+        <v>5220</v>
       </c>
       <c r="D2034" t="s" s="2">
-        <v>5224</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="2035">
@@ -44990,13 +44981,13 @@
         <v>41</v>
       </c>
       <c r="B2035" t="s" s="2">
-        <v>5225</v>
+        <v>5222</v>
       </c>
       <c r="C2035" t="s" s="2">
-        <v>5226</v>
+        <v>5223</v>
       </c>
       <c r="D2035" t="s" s="2">
-        <v>5227</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="2036">
@@ -45004,13 +44995,13 @@
         <v>41</v>
       </c>
       <c r="B2036" t="s" s="2">
-        <v>5228</v>
+        <v>5225</v>
       </c>
       <c r="C2036" t="s" s="2">
-        <v>5229</v>
+        <v>5226</v>
       </c>
       <c r="D2036" t="s" s="2">
-        <v>5230</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2037">
@@ -45018,13 +45009,13 @@
         <v>41</v>
       </c>
       <c r="B2037" t="s" s="2">
-        <v>5231</v>
+        <v>5228</v>
       </c>
       <c r="C2037" t="s" s="2">
-        <v>5232</v>
+        <v>5229</v>
       </c>
       <c r="D2037" t="s" s="2">
-        <v>5233</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="2038">
@@ -45032,13 +45023,13 @@
         <v>41</v>
       </c>
       <c r="B2038" t="s" s="2">
-        <v>5234</v>
+        <v>5231</v>
       </c>
       <c r="C2038" t="s" s="2">
-        <v>5235</v>
+        <v>5232</v>
       </c>
       <c r="D2038" t="s" s="2">
-        <v>5236</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="2039">
@@ -45046,13 +45037,13 @@
         <v>41</v>
       </c>
       <c r="B2039" t="s" s="2">
-        <v>5237</v>
+        <v>5234</v>
       </c>
       <c r="C2039" t="s" s="2">
-        <v>5238</v>
+        <v>5235</v>
       </c>
       <c r="D2039" t="s" s="2">
-        <v>5239</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="2040">
@@ -45060,13 +45051,13 @@
         <v>41</v>
       </c>
       <c r="B2040" t="s" s="2">
-        <v>5240</v>
+        <v>5237</v>
       </c>
       <c r="C2040" t="s" s="2">
-        <v>5241</v>
+        <v>5238</v>
       </c>
       <c r="D2040" t="s" s="2">
-        <v>5242</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="2041">
@@ -45074,13 +45065,13 @@
         <v>41</v>
       </c>
       <c r="B2041" t="s" s="2">
-        <v>5243</v>
+        <v>5240</v>
       </c>
       <c r="C2041" t="s" s="2">
-        <v>5244</v>
+        <v>5241</v>
       </c>
       <c r="D2041" t="s" s="2">
-        <v>5245</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="2042">
@@ -45088,13 +45079,13 @@
         <v>41</v>
       </c>
       <c r="B2042" t="s" s="2">
-        <v>5246</v>
+        <v>5243</v>
       </c>
       <c r="C2042" t="s" s="2">
-        <v>5247</v>
+        <v>5244</v>
       </c>
       <c r="D2042" t="s" s="2">
-        <v>5248</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="2043">
@@ -45102,13 +45093,13 @@
         <v>41</v>
       </c>
       <c r="B2043" t="s" s="2">
-        <v>5249</v>
+        <v>5246</v>
       </c>
       <c r="C2043" t="s" s="2">
-        <v>5250</v>
+        <v>5247</v>
       </c>
       <c r="D2043" t="s" s="2">
-        <v>5251</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="2044">
@@ -45116,13 +45107,13 @@
         <v>41</v>
       </c>
       <c r="B2044" t="s" s="2">
-        <v>5252</v>
+        <v>5249</v>
       </c>
       <c r="C2044" t="s" s="2">
-        <v>5253</v>
+        <v>5250</v>
       </c>
       <c r="D2044" t="s" s="2">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="2045">
@@ -45130,13 +45121,13 @@
         <v>41</v>
       </c>
       <c r="B2045" t="s" s="2">
-        <v>5255</v>
+        <v>5252</v>
       </c>
       <c r="C2045" t="s" s="2">
         <v>812</v>
       </c>
       <c r="D2045" t="s" s="2">
-        <v>5256</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="2046">
@@ -45144,13 +45135,13 @@
         <v>41</v>
       </c>
       <c r="B2046" t="s" s="2">
-        <v>5257</v>
+        <v>5254</v>
       </c>
       <c r="C2046" t="s" s="2">
-        <v>5258</v>
+        <v>5255</v>
       </c>
       <c r="D2046" t="s" s="2">
-        <v>5259</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2047">
@@ -45158,13 +45149,13 @@
         <v>41</v>
       </c>
       <c r="B2047" t="s" s="2">
-        <v>5260</v>
+        <v>5257</v>
       </c>
       <c r="C2047" t="s" s="2">
-        <v>5261</v>
+        <v>5258</v>
       </c>
       <c r="D2047" t="s" s="2">
-        <v>5262</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="2048">
@@ -45172,13 +45163,13 @@
         <v>41</v>
       </c>
       <c r="B2048" t="s" s="2">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="C2048" t="s" s="2">
-        <v>5264</v>
+        <v>5261</v>
       </c>
       <c r="D2048" t="s" s="2">
-        <v>5265</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="2049">
@@ -45186,13 +45177,13 @@
         <v>41</v>
       </c>
       <c r="B2049" t="s" s="2">
-        <v>5266</v>
+        <v>5263</v>
       </c>
       <c r="C2049" t="s" s="2">
-        <v>5267</v>
+        <v>5264</v>
       </c>
       <c r="D2049" t="s" s="2">
-        <v>5268</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="2050">
@@ -45200,13 +45191,13 @@
         <v>41</v>
       </c>
       <c r="B2050" t="s" s="2">
-        <v>5269</v>
+        <v>5266</v>
       </c>
       <c r="C2050" t="s" s="2">
-        <v>5270</v>
+        <v>5267</v>
       </c>
       <c r="D2050" t="s" s="2">
-        <v>5271</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="2051">
@@ -45214,13 +45205,13 @@
         <v>41</v>
       </c>
       <c r="B2051" t="s" s="2">
-        <v>5272</v>
+        <v>5269</v>
       </c>
       <c r="C2051" t="s" s="2">
-        <v>5273</v>
+        <v>5270</v>
       </c>
       <c r="D2051" t="s" s="2">
-        <v>5274</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="2052">
@@ -45228,13 +45219,13 @@
         <v>41</v>
       </c>
       <c r="B2052" t="s" s="2">
-        <v>5275</v>
+        <v>5272</v>
       </c>
       <c r="C2052" t="s" s="2">
         <v>109</v>
       </c>
       <c r="D2052" t="s" s="2">
-        <v>5276</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="2053">
@@ -45242,13 +45233,13 @@
         <v>41</v>
       </c>
       <c r="B2053" t="s" s="2">
-        <v>5277</v>
+        <v>5274</v>
       </c>
       <c r="C2053" t="s" s="2">
         <v>112</v>
       </c>
       <c r="D2053" t="s" s="2">
-        <v>5278</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="2054">
@@ -45256,13 +45247,13 @@
         <v>41</v>
       </c>
       <c r="B2054" t="s" s="2">
-        <v>5279</v>
+        <v>5276</v>
       </c>
       <c r="C2054" t="s" s="2">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="D2054" t="s" s="2">
-        <v>5281</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="2055">
@@ -45270,13 +45261,13 @@
         <v>41</v>
       </c>
       <c r="B2055" t="s" s="2">
-        <v>5282</v>
+        <v>5279</v>
       </c>
       <c r="C2055" t="s" s="2">
-        <v>5283</v>
+        <v>5280</v>
       </c>
       <c r="D2055" t="s" s="2">
-        <v>5284</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="2056">
@@ -45284,13 +45275,13 @@
         <v>41</v>
       </c>
       <c r="B2056" t="s" s="2">
-        <v>5285</v>
+        <v>5282</v>
       </c>
       <c r="C2056" t="s" s="2">
         <v>296</v>
       </c>
       <c r="D2056" t="s" s="2">
-        <v>5286</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="2057">
@@ -45298,13 +45289,13 @@
         <v>41</v>
       </c>
       <c r="B2057" t="s" s="2">
-        <v>5287</v>
+        <v>5284</v>
       </c>
       <c r="C2057" t="s" s="2">
         <v>299</v>
       </c>
       <c r="D2057" t="s" s="2">
-        <v>5288</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="2058">
@@ -45312,13 +45303,13 @@
         <v>41</v>
       </c>
       <c r="B2058" t="s" s="2">
-        <v>5289</v>
+        <v>5286</v>
       </c>
       <c r="C2058" t="s" s="2">
         <v>146</v>
       </c>
       <c r="D2058" t="s" s="2">
-        <v>5290</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="2059">
@@ -45326,13 +45317,13 @@
         <v>41</v>
       </c>
       <c r="B2059" t="s" s="2">
-        <v>5291</v>
+        <v>5288</v>
       </c>
       <c r="C2059" t="s" s="2">
-        <v>5292</v>
+        <v>5289</v>
       </c>
       <c r="D2059" t="s" s="2">
-        <v>5293</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="2060">
@@ -45340,13 +45331,13 @@
         <v>41</v>
       </c>
       <c r="B2060" t="s" s="2">
-        <v>5294</v>
+        <v>5291</v>
       </c>
       <c r="C2060" t="s" s="2">
-        <v>5295</v>
+        <v>5292</v>
       </c>
       <c r="D2060" t="s" s="2">
-        <v>5296</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="2061">
@@ -45354,13 +45345,13 @@
         <v>41</v>
       </c>
       <c r="B2061" t="s" s="2">
-        <v>5297</v>
+        <v>5294</v>
       </c>
       <c r="C2061" t="s" s="2">
-        <v>5298</v>
+        <v>5295</v>
       </c>
       <c r="D2061" t="s" s="2">
-        <v>5299</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="2062">
@@ -45368,13 +45359,13 @@
         <v>41</v>
       </c>
       <c r="B2062" t="s" s="2">
-        <v>5300</v>
+        <v>5297</v>
       </c>
       <c r="C2062" t="s" s="2">
-        <v>5301</v>
+        <v>5298</v>
       </c>
       <c r="D2062" t="s" s="2">
-        <v>5302</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2063">
@@ -45382,13 +45373,13 @@
         <v>41</v>
       </c>
       <c r="B2063" t="s" s="2">
-        <v>5303</v>
+        <v>5300</v>
       </c>
       <c r="C2063" t="s" s="2">
-        <v>5304</v>
+        <v>5301</v>
       </c>
       <c r="D2063" t="s" s="2">
-        <v>5305</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="2064">
@@ -45396,13 +45387,13 @@
         <v>41</v>
       </c>
       <c r="B2064" t="s" s="2">
-        <v>5306</v>
+        <v>5303</v>
       </c>
       <c r="C2064" t="s" s="2">
-        <v>5307</v>
+        <v>5304</v>
       </c>
       <c r="D2064" t="s" s="2">
-        <v>5308</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="2065">
@@ -45410,13 +45401,13 @@
         <v>41</v>
       </c>
       <c r="B2065" t="s" s="2">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="C2065" t="s" s="2">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="D2065" t="s" s="2">
-        <v>5311</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="2066">
@@ -45424,13 +45415,13 @@
         <v>41</v>
       </c>
       <c r="B2066" t="s" s="2">
-        <v>5312</v>
+        <v>5309</v>
       </c>
       <c r="C2066" t="s" s="2">
-        <v>5313</v>
+        <v>5310</v>
       </c>
       <c r="D2066" t="s" s="2">
-        <v>5314</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="2067">
@@ -45438,13 +45429,13 @@
         <v>41</v>
       </c>
       <c r="B2067" t="s" s="2">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="C2067" t="s" s="2">
-        <v>5316</v>
+        <v>5313</v>
       </c>
       <c r="D2067" t="s" s="2">
-        <v>5317</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="2068">
@@ -45452,13 +45443,13 @@
         <v>41</v>
       </c>
       <c r="B2068" t="s" s="2">
-        <v>5318</v>
+        <v>5315</v>
       </c>
       <c r="C2068" t="s" s="2">
-        <v>5319</v>
+        <v>5316</v>
       </c>
       <c r="D2068" t="s" s="2">
-        <v>5320</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="2069">
@@ -45466,13 +45457,13 @@
         <v>41</v>
       </c>
       <c r="B2069" t="s" s="2">
-        <v>5321</v>
+        <v>5318</v>
       </c>
       <c r="C2069" t="s" s="2">
-        <v>5322</v>
+        <v>5319</v>
       </c>
       <c r="D2069" t="s" s="2">
-        <v>5323</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="2070">
@@ -45480,7 +45471,7 @@
         <v>41</v>
       </c>
       <c r="B2070" t="s" s="2">
-        <v>5324</v>
+        <v>5321</v>
       </c>
       <c r="C2070" t="s" s="2">
         <v>1270</v>
@@ -45494,7 +45485,7 @@
         <v>41</v>
       </c>
       <c r="B2071" t="s" s="2">
-        <v>5325</v>
+        <v>5322</v>
       </c>
       <c r="C2071" t="s" s="2">
         <v>1273</v>
@@ -45508,7 +45499,7 @@
         <v>41</v>
       </c>
       <c r="B2072" t="s" s="2">
-        <v>5326</v>
+        <v>5323</v>
       </c>
       <c r="C2072" t="s" s="2">
         <v>1397</v>
@@ -45522,13 +45513,13 @@
         <v>41</v>
       </c>
       <c r="B2073" t="s" s="2">
-        <v>5327</v>
+        <v>5324</v>
       </c>
       <c r="C2073" t="s" s="2">
-        <v>5328</v>
+        <v>5325</v>
       </c>
       <c r="D2073" t="s" s="2">
-        <v>5329</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="2074">
@@ -45536,13 +45527,13 @@
         <v>41</v>
       </c>
       <c r="B2074" t="s" s="2">
-        <v>5330</v>
+        <v>5327</v>
       </c>
       <c r="C2074" t="s" s="2">
-        <v>5331</v>
+        <v>5328</v>
       </c>
       <c r="D2074" t="s" s="2">
-        <v>5332</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="2075">
@@ -45550,13 +45541,13 @@
         <v>41</v>
       </c>
       <c r="B2075" t="s" s="2">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="C2075" t="s" s="2">
-        <v>5334</v>
+        <v>5331</v>
       </c>
       <c r="D2075" t="s" s="2">
-        <v>5335</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="2076">
@@ -45564,13 +45555,13 @@
         <v>41</v>
       </c>
       <c r="B2076" t="s" s="2">
-        <v>5336</v>
+        <v>5333</v>
       </c>
       <c r="C2076" t="s" s="2">
-        <v>5337</v>
+        <v>5334</v>
       </c>
       <c r="D2076" t="s" s="2">
-        <v>5338</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="2077">
@@ -45578,13 +45569,13 @@
         <v>41</v>
       </c>
       <c r="B2077" t="s" s="2">
-        <v>5339</v>
+        <v>5336</v>
       </c>
       <c r="C2077" t="s" s="2">
-        <v>5340</v>
+        <v>5337</v>
       </c>
       <c r="D2077" t="s" s="2">
-        <v>5341</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="2078">
@@ -45592,13 +45583,13 @@
         <v>41</v>
       </c>
       <c r="B2078" t="s" s="2">
-        <v>5342</v>
+        <v>5339</v>
       </c>
       <c r="C2078" t="s" s="2">
-        <v>5343</v>
+        <v>5340</v>
       </c>
       <c r="D2078" t="s" s="2">
-        <v>5344</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="2079">
@@ -45606,13 +45597,13 @@
         <v>41</v>
       </c>
       <c r="B2079" t="s" s="2">
-        <v>5345</v>
+        <v>5342</v>
       </c>
       <c r="C2079" t="s" s="2">
-        <v>5346</v>
+        <v>5343</v>
       </c>
       <c r="D2079" t="s" s="2">
-        <v>5347</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="2080">
@@ -45620,13 +45611,13 @@
         <v>41</v>
       </c>
       <c r="B2080" t="s" s="2">
-        <v>5348</v>
+        <v>5345</v>
       </c>
       <c r="C2080" t="s" s="2">
-        <v>5349</v>
+        <v>5346</v>
       </c>
       <c r="D2080" t="s" s="2">
-        <v>5350</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="2081">
@@ -45634,13 +45625,13 @@
         <v>41</v>
       </c>
       <c r="B2081" t="s" s="2">
-        <v>5351</v>
+        <v>5348</v>
       </c>
       <c r="C2081" t="s" s="2">
-        <v>5352</v>
+        <v>5349</v>
       </c>
       <c r="D2081" t="s" s="2">
-        <v>5353</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="2082">
@@ -45648,13 +45639,13 @@
         <v>41</v>
       </c>
       <c r="B2082" t="s" s="2">
-        <v>5354</v>
+        <v>5351</v>
       </c>
       <c r="C2082" t="s" s="2">
-        <v>5355</v>
+        <v>5352</v>
       </c>
       <c r="D2082" t="s" s="2">
-        <v>5356</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="2083">
@@ -45662,13 +45653,13 @@
         <v>41</v>
       </c>
       <c r="B2083" t="s" s="2">
-        <v>5357</v>
+        <v>5354</v>
       </c>
       <c r="C2083" t="s" s="2">
-        <v>5358</v>
+        <v>5355</v>
       </c>
       <c r="D2083" t="s" s="2">
-        <v>5359</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="2084">
@@ -45676,13 +45667,13 @@
         <v>41</v>
       </c>
       <c r="B2084" t="s" s="2">
-        <v>5360</v>
+        <v>5357</v>
       </c>
       <c r="C2084" t="s" s="2">
-        <v>5361</v>
+        <v>5358</v>
       </c>
       <c r="D2084" t="s" s="2">
-        <v>5362</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="2085">
@@ -45690,13 +45681,13 @@
         <v>41</v>
       </c>
       <c r="B2085" t="s" s="2">
-        <v>5363</v>
+        <v>5360</v>
       </c>
       <c r="C2085" t="s" s="2">
-        <v>5364</v>
+        <v>5361</v>
       </c>
       <c r="D2085" t="s" s="2">
-        <v>5365</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="2086">
@@ -45704,13 +45695,13 @@
         <v>41</v>
       </c>
       <c r="B2086" t="s" s="2">
-        <v>5366</v>
+        <v>5363</v>
       </c>
       <c r="C2086" t="s" s="2">
-        <v>5367</v>
+        <v>5364</v>
       </c>
       <c r="D2086" t="s" s="2">
-        <v>5368</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="2087">
@@ -45718,13 +45709,13 @@
         <v>41</v>
       </c>
       <c r="B2087" t="s" s="2">
-        <v>5369</v>
+        <v>5366</v>
       </c>
       <c r="C2087" t="s" s="2">
-        <v>5370</v>
+        <v>5367</v>
       </c>
       <c r="D2087" t="s" s="2">
-        <v>5371</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="2088">
@@ -45732,13 +45723,13 @@
         <v>41</v>
       </c>
       <c r="B2088" t="s" s="2">
-        <v>5372</v>
+        <v>5369</v>
       </c>
       <c r="C2088" t="s" s="2">
-        <v>5373</v>
+        <v>5370</v>
       </c>
       <c r="D2088" t="s" s="2">
-        <v>5374</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="2089">
@@ -45746,13 +45737,13 @@
         <v>41</v>
       </c>
       <c r="B2089" t="s" s="2">
-        <v>5375</v>
+        <v>5372</v>
       </c>
       <c r="C2089" t="s" s="2">
-        <v>5376</v>
+        <v>5373</v>
       </c>
       <c r="D2089" t="s" s="2">
-        <v>5377</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="2090">
@@ -45760,13 +45751,13 @@
         <v>41</v>
       </c>
       <c r="B2090" t="s" s="2">
-        <v>5378</v>
+        <v>5375</v>
       </c>
       <c r="C2090" t="s" s="2">
-        <v>5379</v>
+        <v>5376</v>
       </c>
       <c r="D2090" t="s" s="2">
-        <v>5380</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="2091">
@@ -45774,13 +45765,13 @@
         <v>41</v>
       </c>
       <c r="B2091" t="s" s="2">
-        <v>5381</v>
+        <v>5378</v>
       </c>
       <c r="C2091" t="s" s="2">
-        <v>5382</v>
+        <v>5379</v>
       </c>
       <c r="D2091" t="s" s="2">
-        <v>5383</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="2092">
@@ -45788,13 +45779,13 @@
         <v>41</v>
       </c>
       <c r="B2092" t="s" s="2">
-        <v>5384</v>
+        <v>5381</v>
       </c>
       <c r="C2092" t="s" s="2">
-        <v>5385</v>
+        <v>5382</v>
       </c>
       <c r="D2092" t="s" s="2">
-        <v>5386</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="2093">
@@ -45802,13 +45793,13 @@
         <v>41</v>
       </c>
       <c r="B2093" t="s" s="2">
-        <v>5387</v>
+        <v>5384</v>
       </c>
       <c r="C2093" t="s" s="2">
-        <v>5388</v>
+        <v>5385</v>
       </c>
       <c r="D2093" t="s" s="2">
-        <v>5389</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="2094">
@@ -45816,13 +45807,13 @@
         <v>41</v>
       </c>
       <c r="B2094" t="s" s="2">
-        <v>5390</v>
+        <v>5387</v>
       </c>
       <c r="C2094" t="s" s="2">
-        <v>5391</v>
+        <v>5388</v>
       </c>
       <c r="D2094" t="s" s="2">
-        <v>5392</v>
+        <v>5389</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T04:52:13+00:00</t>
+    <t>2025-01-30T07:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T07:19:17+00:00</t>
+    <t>2025-01-30T16:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:12:52+00:00</t>
+    <t>2025-01-31T23:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T23:17:43+00:00</t>
+    <t>2025-02-01T06:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T06:48:33+00:00</t>
+    <t>2025-02-01T23:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-HIVConcepts.xlsx
+++ b/CodeSystem-HIVConcepts.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:38:57+00:00</t>
+    <t>2025-02-07T14:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
